--- a/3_Component_Results/PRIVCON/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/PRIVCON/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>ME</t>
   </si>
@@ -44,18 +44,6 @@
   </si>
   <si>
     <t>Q3</t>
-  </si>
-  <si>
-    <t>Q4</t>
-  </si>
-  <si>
-    <t>Q5</t>
-  </si>
-  <si>
-    <t>Q6</t>
-  </si>
-  <si>
-    <t>Q7</t>
   </si>
 </sst>
 </file>
@@ -413,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,19 +432,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.3551455746098042</v>
+        <v>0.4524751023004333</v>
       </c>
       <c r="C2">
-        <v>0.4905469829481141</v>
+        <v>0.7399800961295603</v>
       </c>
       <c r="D2">
-        <v>0.4227057836523707</v>
+        <v>0.959507423691378</v>
       </c>
       <c r="E2">
-        <v>0.6501582758470208</v>
+        <v>0.9795444980660031</v>
       </c>
       <c r="F2">
-        <v>0.5651469286711879</v>
+        <v>0.901572637837064</v>
       </c>
       <c r="G2">
         <v>14</v>
@@ -467,22 +455,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.3136323267168208</v>
+        <v>0.06200830852274453</v>
       </c>
       <c r="C3">
-        <v>0.3203503263753984</v>
+        <v>0.6054022942997469</v>
       </c>
       <c r="D3">
-        <v>0.2131590095592749</v>
+        <v>0.6570257936368813</v>
       </c>
       <c r="E3">
-        <v>0.4616914657639612</v>
+        <v>0.810571276099074</v>
       </c>
       <c r="F3">
-        <v>0.3526470203531061</v>
+        <v>0.8519133780372987</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -490,22 +478,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.2777005686395698</v>
+        <v>-0.06427704427340604</v>
       </c>
       <c r="C4">
-        <v>0.2964083886091128</v>
+        <v>0.2800168996375158</v>
       </c>
       <c r="D4">
-        <v>0.2223838275995043</v>
+        <v>0.1697350109970526</v>
       </c>
       <c r="E4">
-        <v>0.4715758980265046</v>
+        <v>0.411989090871412</v>
       </c>
       <c r="F4">
-        <v>0.3980857218468003</v>
+        <v>0.445784888810548</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -513,111 +501,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.2957642445590993</v>
+        <v>0.2218614552644835</v>
       </c>
       <c r="C5">
-        <v>0.3023979705905409</v>
+        <v>0.2564559007953193</v>
       </c>
       <c r="D5">
-        <v>0.1729617799241216</v>
+        <v>0.1149921343848131</v>
       </c>
       <c r="E5">
-        <v>0.4158867392982393</v>
+        <v>0.3391049017410587</v>
       </c>
       <c r="F5">
-        <v>0.3066493448891707</v>
+        <v>0.3626834130553496</v>
       </c>
       <c r="G5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>0.2068057875900168</v>
-      </c>
-      <c r="C6">
-        <v>0.2152203682044118</v>
-      </c>
-      <c r="D6">
-        <v>0.06522426589599038</v>
-      </c>
-      <c r="E6">
-        <v>0.255390418567319</v>
-      </c>
-      <c r="F6">
-        <v>0.1579579132246702</v>
-      </c>
-      <c r="G6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>0.1503813122761957</v>
-      </c>
-      <c r="C7">
-        <v>0.1650965007437495</v>
-      </c>
-      <c r="D7">
-        <v>0.03449632679967667</v>
-      </c>
-      <c r="E7">
-        <v>0.1857318680239788</v>
-      </c>
-      <c r="F7">
-        <v>0.1177373588574458</v>
-      </c>
-      <c r="G7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8">
-        <v>0.1608183520466619</v>
-      </c>
-      <c r="C8">
-        <v>0.1680556114149081</v>
-      </c>
-      <c r="D8">
-        <v>0.03627162122733268</v>
-      </c>
-      <c r="E8">
-        <v>0.1904510993072308</v>
-      </c>
-      <c r="F8">
-        <v>0.117808199331674</v>
-      </c>
-      <c r="G8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9">
-        <v>0.002521107979442494</v>
-      </c>
-      <c r="C9">
-        <v>0.002521107979442494</v>
-      </c>
-      <c r="D9">
-        <v>6.355985444008614E-06</v>
-      </c>
-      <c r="E9">
-        <v>0.002521107979442494</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/PRIVCON/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/PRIVCON/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
@@ -432,19 +432,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.4524751023004333</v>
+        <v>0.3600212038047717</v>
       </c>
       <c r="C2">
-        <v>0.7399800961295603</v>
+        <v>0.4297948612912168</v>
       </c>
       <c r="D2">
-        <v>0.959507423691378</v>
+        <v>0.3689482115053426</v>
       </c>
       <c r="E2">
-        <v>0.9795444980660031</v>
+        <v>0.6074110729196025</v>
       </c>
       <c r="F2">
-        <v>0.901572637837064</v>
+        <v>0.507684125024779</v>
       </c>
       <c r="G2">
         <v>14</v>
@@ -455,19 +455,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.06200830852274453</v>
+        <v>0.1144269351476378</v>
       </c>
       <c r="C3">
-        <v>0.6054022942997469</v>
+        <v>0.2119524186144291</v>
       </c>
       <c r="D3">
-        <v>0.6570257936368813</v>
+        <v>0.09979453641461808</v>
       </c>
       <c r="E3">
-        <v>0.810571276099074</v>
+        <v>0.3159027325216072</v>
       </c>
       <c r="F3">
-        <v>0.8519133780372987</v>
+        <v>0.3103779289964921</v>
       </c>
       <c r="G3">
         <v>10</v>
@@ -478,19 +478,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06427704427340604</v>
+        <v>0.04590311845355863</v>
       </c>
       <c r="C4">
-        <v>0.2800168996375158</v>
+        <v>0.2393856741142939</v>
       </c>
       <c r="D4">
-        <v>0.1697350109970526</v>
+        <v>0.09493667408959593</v>
       </c>
       <c r="E4">
-        <v>0.411989090871412</v>
+        <v>0.3081179548315806</v>
       </c>
       <c r="F4">
-        <v>0.445784888810548</v>
+        <v>0.3337596341186294</v>
       </c>
       <c r="G4">
         <v>6</v>
@@ -501,19 +501,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.2218614552644835</v>
+        <v>0.01339574438561458</v>
       </c>
       <c r="C5">
-        <v>0.2564559007953193</v>
+        <v>0.07924522757218994</v>
       </c>
       <c r="D5">
-        <v>0.1149921343848131</v>
+        <v>0.006459252060612895</v>
       </c>
       <c r="E5">
-        <v>0.3391049017410587</v>
+        <v>0.08036947219319594</v>
       </c>
       <c r="F5">
-        <v>0.3626834130553496</v>
+        <v>0.1120696755859333</v>
       </c>
       <c r="G5">
         <v>2</v>

--- a/3_Component_Results/PRIVCON/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/PRIVCON/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ME</t>
   </si>
@@ -44,6 +44,24 @@
   </si>
   <si>
     <t>Q3</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Q5</t>
+  </si>
+  <si>
+    <t>Q6</t>
+  </si>
+  <si>
+    <t>Q7</t>
+  </si>
+  <si>
+    <t>Q8</t>
+  </si>
+  <si>
+    <t>Q9</t>
   </si>
 </sst>
 </file>
@@ -401,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.3600212038047717</v>
+        <v>-0.07739702482877463</v>
       </c>
       <c r="C2">
-        <v>0.4297948612912168</v>
+        <v>1.209708611120026</v>
       </c>
       <c r="D2">
-        <v>0.3689482115053426</v>
+        <v>5.87897926970247</v>
       </c>
       <c r="E2">
-        <v>0.6074110729196025</v>
+        <v>2.424660650421512</v>
       </c>
       <c r="F2">
-        <v>0.507684125024779</v>
+        <v>2.450204039719076</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -455,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.1144269351476378</v>
+        <v>0.02031028170919459</v>
       </c>
       <c r="C3">
-        <v>0.2119524186144291</v>
+        <v>0.9834245770809631</v>
       </c>
       <c r="D3">
-        <v>0.09979453641461808</v>
+        <v>5.528573558696921</v>
       </c>
       <c r="E3">
-        <v>0.3159027325216072</v>
+        <v>2.351291891428395</v>
       </c>
       <c r="F3">
-        <v>0.3103779289964921</v>
+        <v>2.377772292513241</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -478,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.04590311845355863</v>
+        <v>0.0743662420822289</v>
       </c>
       <c r="C4">
-        <v>0.2393856741142939</v>
+        <v>1.136542105538119</v>
       </c>
       <c r="D4">
-        <v>0.09493667408959593</v>
+        <v>5.807295300627064</v>
       </c>
       <c r="E4">
-        <v>0.3081179548315806</v>
+        <v>2.409833044139586</v>
       </c>
       <c r="F4">
-        <v>0.3337596341186294</v>
+        <v>2.436532316477507</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -501,22 +519,160 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.01339574438561458</v>
+        <v>0.09081030254506482</v>
       </c>
       <c r="C5">
-        <v>0.07924522757218994</v>
+        <v>1.050097083832656</v>
       </c>
       <c r="D5">
-        <v>0.006459252060612895</v>
+        <v>5.397854852969357</v>
       </c>
       <c r="E5">
-        <v>0.08036947219319594</v>
+        <v>2.323328399725135</v>
       </c>
       <c r="F5">
-        <v>0.1120696755859333</v>
+        <v>2.349027958552645</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>-0.007438971329838501</v>
+      </c>
+      <c r="C6">
+        <v>1.151079626825395</v>
+      </c>
+      <c r="D6">
+        <v>5.979540328991934</v>
+      </c>
+      <c r="E6">
+        <v>2.445309863594374</v>
+      </c>
+      <c r="F6">
+        <v>2.474939613007068</v>
+      </c>
+      <c r="G6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>0.1351926068579674</v>
+      </c>
+      <c r="C7">
+        <v>1.164807331735655</v>
+      </c>
+      <c r="D7">
+        <v>6.217927003399993</v>
+      </c>
+      <c r="E7">
+        <v>2.493577150079779</v>
+      </c>
+      <c r="F7">
+        <v>2.520841369763717</v>
+      </c>
+      <c r="G7">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>0.01744900449909736</v>
+      </c>
+      <c r="C8">
+        <v>1.177156600770578</v>
+      </c>
+      <c r="D8">
+        <v>6.253386703988633</v>
+      </c>
+      <c r="E8">
+        <v>2.500677249064467</v>
+      </c>
+      <c r="F8">
+        <v>2.532472641152369</v>
+      </c>
+      <c r="G8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>0.105586766963157</v>
+      </c>
+      <c r="C9">
+        <v>1.159725696271973</v>
+      </c>
+      <c r="D9">
+        <v>6.386117125364788</v>
+      </c>
+      <c r="E9">
+        <v>2.527076794512741</v>
+      </c>
+      <c r="F9">
+        <v>2.557876246133412</v>
+      </c>
+      <c r="G9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>0.04157247324465378</v>
+      </c>
+      <c r="C10">
+        <v>1.241901496424245</v>
+      </c>
+      <c r="D10">
+        <v>6.597015579009581</v>
+      </c>
+      <c r="E10">
+        <v>2.568465607908656</v>
+      </c>
+      <c r="F10">
+        <v>2.602602220243259</v>
+      </c>
+      <c r="G10">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>0.02082192042088303</v>
+      </c>
+      <c r="C11">
+        <v>1.103681662169545</v>
+      </c>
+      <c r="D11">
+        <v>6.407533224363127</v>
+      </c>
+      <c r="E11">
+        <v>2.531310574458047</v>
+      </c>
+      <c r="F11">
+        <v>2.566140031814673</v>
+      </c>
+      <c r="G11">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/PRIVCON/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/PRIVCON/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.07739702482877463</v>
+        <v>-0.06591355322105676</v>
       </c>
       <c r="C2">
-        <v>1.209708611120026</v>
+        <v>1.530871157958665</v>
       </c>
       <c r="D2">
-        <v>5.87897926970247</v>
+        <v>9.613058837089685</v>
       </c>
       <c r="E2">
-        <v>2.424660650421512</v>
+        <v>3.100493321568309</v>
       </c>
       <c r="F2">
-        <v>2.450204039719076</v>
+        <v>3.142550392515095</v>
       </c>
       <c r="G2">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.02031028170919459</v>
+        <v>-0.1153523995099622</v>
       </c>
       <c r="C3">
-        <v>0.9834245770809631</v>
+        <v>1.586536423933229</v>
       </c>
       <c r="D3">
-        <v>5.528573558696921</v>
+        <v>9.239019619989865</v>
       </c>
       <c r="E3">
-        <v>2.351291891428395</v>
+        <v>3.039575565764053</v>
       </c>
       <c r="F3">
-        <v>2.377772292513241</v>
+        <v>3.080471596460598</v>
       </c>
       <c r="G3">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.0743662420822289</v>
+        <v>0.2107882169940999</v>
       </c>
       <c r="C4">
-        <v>1.136542105538119</v>
+        <v>1.437393044426323</v>
       </c>
       <c r="D4">
-        <v>5.807295300627064</v>
+        <v>7.605898777194823</v>
       </c>
       <c r="E4">
-        <v>2.409833044139586</v>
+        <v>2.757879398595019</v>
       </c>
       <c r="F4">
-        <v>2.436532316477507</v>
+        <v>2.789957561700191</v>
       </c>
       <c r="G4">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.09081030254506482</v>
+        <v>-0.05894863319698449</v>
       </c>
       <c r="C5">
-        <v>1.050097083832656</v>
+        <v>1.449923016958758</v>
       </c>
       <c r="D5">
-        <v>5.397854852969357</v>
+        <v>8.054208459716339</v>
       </c>
       <c r="E5">
-        <v>2.323328399725135</v>
+        <v>2.83799373849139</v>
       </c>
       <c r="F5">
-        <v>2.349027958552645</v>
+        <v>2.88005123914993</v>
       </c>
       <c r="G5">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.007438971329838501</v>
+        <v>0.06660901963189692</v>
       </c>
       <c r="C6">
-        <v>1.151079626825395</v>
+        <v>1.455420382974703</v>
       </c>
       <c r="D6">
-        <v>5.979540328991934</v>
+        <v>7.924301366729891</v>
       </c>
       <c r="E6">
-        <v>2.445309863594374</v>
+        <v>2.815013564217745</v>
       </c>
       <c r="F6">
-        <v>2.474939613007068</v>
+        <v>2.857859404195231</v>
       </c>
       <c r="G6">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.1351926068579674</v>
+        <v>0.01281360325436448</v>
       </c>
       <c r="C7">
-        <v>1.164807331735655</v>
+        <v>1.487479230018397</v>
       </c>
       <c r="D7">
-        <v>6.217927003399993</v>
+        <v>7.948061675552662</v>
       </c>
       <c r="E7">
-        <v>2.493577150079779</v>
+        <v>2.819230688601531</v>
       </c>
       <c r="F7">
-        <v>2.520841369763717</v>
+        <v>2.864311658502185</v>
       </c>
       <c r="G7">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.01744900449909736</v>
+        <v>0.09900455323890892</v>
       </c>
       <c r="C8">
-        <v>1.177156600770578</v>
+        <v>1.416118458025723</v>
       </c>
       <c r="D8">
-        <v>6.253386703988633</v>
+        <v>8.065898923416519</v>
       </c>
       <c r="E8">
-        <v>2.500677249064467</v>
+        <v>2.84005262687446</v>
       </c>
       <c r="F8">
-        <v>2.532472641152369</v>
+        <v>2.885244112592491</v>
       </c>
       <c r="G8">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.105586766963157</v>
+        <v>-0.005229847462883516</v>
       </c>
       <c r="C9">
-        <v>1.159725696271973</v>
+        <v>1.510955205997302</v>
       </c>
       <c r="D9">
-        <v>6.386117125364788</v>
+        <v>8.306051057092679</v>
       </c>
       <c r="E9">
-        <v>2.527076794512741</v>
+        <v>2.882022043130947</v>
       </c>
       <c r="F9">
-        <v>2.557876246133412</v>
+        <v>2.931286119834196</v>
       </c>
       <c r="G9">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.04157247324465378</v>
+        <v>0.1051993359688867</v>
       </c>
       <c r="C10">
-        <v>1.241901496424245</v>
+        <v>1.480362500590311</v>
       </c>
       <c r="D10">
-        <v>6.597015579009581</v>
+        <v>8.558816931283857</v>
       </c>
       <c r="E10">
-        <v>2.568465607908656</v>
+        <v>2.925545578397961</v>
       </c>
       <c r="F10">
-        <v>2.602602220243259</v>
+        <v>2.975403639477648</v>
       </c>
       <c r="G10">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.02082192042088303</v>
+        <v>-0.01357939262990701</v>
       </c>
       <c r="C11">
-        <v>1.103681662169545</v>
+        <v>1.607689944068207</v>
       </c>
       <c r="D11">
-        <v>6.407533224363127</v>
+        <v>8.915413051994902</v>
       </c>
       <c r="E11">
-        <v>2.531310574458047</v>
+        <v>2.985868893972892</v>
       </c>
       <c r="F11">
-        <v>2.566140031814673</v>
+        <v>3.040628603738353</v>
       </c>
       <c r="G11">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/PRIVCON/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/PRIVCON/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.06591355322105676</v>
+        <v>-0.3291291692495283</v>
       </c>
       <c r="C2">
-        <v>1.530871157958665</v>
+        <v>1.812906911408057</v>
       </c>
       <c r="D2">
-        <v>9.613058837089685</v>
+        <v>27.04923173616717</v>
       </c>
       <c r="E2">
-        <v>3.100493321568309</v>
+        <v>5.200887591187409</v>
       </c>
       <c r="F2">
-        <v>3.142550392515095</v>
+        <v>5.247817881751421</v>
       </c>
       <c r="G2">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.1153523995099622</v>
+        <v>-0.9495326209681835</v>
       </c>
       <c r="C3">
-        <v>1.586536423933229</v>
+        <v>2.023872778234117</v>
       </c>
       <c r="D3">
-        <v>9.239019619989865</v>
+        <v>43.75773521907136</v>
       </c>
       <c r="E3">
-        <v>3.039575565764053</v>
+        <v>6.614962979418053</v>
       </c>
       <c r="F3">
-        <v>3.080471596460598</v>
+        <v>6.620432449373355</v>
       </c>
       <c r="G3">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.2107882169940999</v>
+        <v>-1.78880049929551</v>
       </c>
       <c r="C4">
-        <v>1.437393044426323</v>
+        <v>3.145904294961889</v>
       </c>
       <c r="D4">
-        <v>7.605898777194823</v>
+        <v>171.4597706064012</v>
       </c>
       <c r="E4">
-        <v>2.757879398595019</v>
+        <v>13.094264798239</v>
       </c>
       <c r="F4">
-        <v>2.789957561700191</v>
+        <v>13.12147041243131</v>
       </c>
       <c r="G4">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.05894863319698449</v>
+        <v>-4.213288228997171</v>
       </c>
       <c r="C5">
-        <v>1.449923016958758</v>
+        <v>5.762860054837126</v>
       </c>
       <c r="D5">
-        <v>8.054208459716339</v>
+        <v>837.7929586707833</v>
       </c>
       <c r="E5">
-        <v>2.83799373849139</v>
+        <v>28.94465336933202</v>
       </c>
       <c r="F5">
-        <v>2.88005123914993</v>
+        <v>28.97526445982997</v>
       </c>
       <c r="G5">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.06660901963189692</v>
+        <v>-8.901962788184429</v>
       </c>
       <c r="C6">
-        <v>1.455420382974703</v>
+        <v>10.44294745540641</v>
       </c>
       <c r="D6">
-        <v>7.924301366729891</v>
+        <v>3576.380529151133</v>
       </c>
       <c r="E6">
-        <v>2.815013564217745</v>
+        <v>59.80284716592625</v>
       </c>
       <c r="F6">
-        <v>2.857859404195231</v>
+        <v>59.85341742634296</v>
       </c>
       <c r="G6">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01281360325436448</v>
+        <v>-18.90835081736334</v>
       </c>
       <c r="C7">
-        <v>1.487479230018397</v>
+        <v>20.50494998719962</v>
       </c>
       <c r="D7">
-        <v>7.948061675552662</v>
+        <v>14831.91797591911</v>
       </c>
       <c r="E7">
-        <v>2.819230688601531</v>
+        <v>121.786362027606</v>
       </c>
       <c r="F7">
-        <v>2.864311658502185</v>
+        <v>121.8041544916215</v>
       </c>
       <c r="G7">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.09900455323890892</v>
+        <v>-39.82066791606469</v>
       </c>
       <c r="C8">
-        <v>1.416118458025723</v>
+        <v>41.45267336896583</v>
       </c>
       <c r="D8">
-        <v>8.065898923416519</v>
+        <v>64161.89026247886</v>
       </c>
       <c r="E8">
-        <v>2.84005262687446</v>
+        <v>253.3019744543632</v>
       </c>
       <c r="F8">
-        <v>2.885244112592491</v>
+        <v>253.3391456874329</v>
       </c>
       <c r="G8">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.005229847462883516</v>
+        <v>-84.10188452280053</v>
       </c>
       <c r="C9">
-        <v>1.510955205997302</v>
+        <v>85.72607652365316</v>
       </c>
       <c r="D9">
-        <v>8.306051057092679</v>
+        <v>276745.0078080686</v>
       </c>
       <c r="E9">
-        <v>2.882022043130947</v>
+        <v>526.0655926859963</v>
       </c>
       <c r="F9">
-        <v>2.931286119834196</v>
+        <v>526.087929219649</v>
       </c>
       <c r="G9">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1051993359688867</v>
+        <v>-176.9409422996708</v>
       </c>
       <c r="C10">
-        <v>1.480362500590311</v>
+        <v>178.6784928052071</v>
       </c>
       <c r="D10">
-        <v>8.558816931283857</v>
+        <v>1193366.26590965</v>
       </c>
       <c r="E10">
-        <v>2.925545578397961</v>
+        <v>1092.413047299258</v>
       </c>
       <c r="F10">
-        <v>2.975403639477648</v>
+        <v>1092.458304185648</v>
       </c>
       <c r="G10">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.01357939262990701</v>
+        <v>-372.8822845639866</v>
       </c>
       <c r="C11">
-        <v>1.607689944068207</v>
+        <v>374.5397916143799</v>
       </c>
       <c r="D11">
-        <v>8.915413051994902</v>
+        <v>5147954.627584639</v>
       </c>
       <c r="E11">
-        <v>2.985868893972892</v>
+        <v>2268.910449441458</v>
       </c>
       <c r="F11">
-        <v>3.040628603738353</v>
+        <v>2268.931447530792</v>
       </c>
       <c r="G11">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
